--- a/notebooks/mkappa/verification_data/yao20_yao_mobasher/table_4/qui20.xlsx
+++ b/notebooks/mkappa/verification_data/yao20_yao_mobasher/table_4/qui20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\bmcs_cross_section\mkappa\verification_data\yao20_yao_mobasher\table_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IMB\PyCharm_workspace\bmcs_cross_section\notebooks\mkappa\verification_data\yao20_yao_mobasher\table_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59742D70-3EB1-4233-A5C1-EFCEF317B308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8B40B-D89D-4386-8C68-12CA7CC680CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13530" yWindow="240" windowWidth="10800" windowHeight="8780" xr2:uid="{D809DDEB-F394-46B5-AC1A-29D0718D82BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D809DDEB-F394-46B5-AC1A-29D0718D82BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,339 +402,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7635CF0-80E3-44D3-9379-161D35AC1AC6}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0.31788079470198677</v>
       </c>
       <c r="B3" s="1">
         <v>5.1502145922746783</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.31788079470198677</v>
+      </c>
       <c r="D3" s="1">
-        <v>0.31788079470198677</v>
-      </c>
-      <c r="E3" s="1">
         <v>6.0085836909871242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.8741721854304636</v>
       </c>
       <c r="B4" s="1">
         <v>9.4420600858369106</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.55629139072847678</v>
+      </c>
       <c r="D4" s="1">
-        <v>0.55629139072847678</v>
-      </c>
-      <c r="E4" s="1">
         <v>10.300429184549357</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1.2715231788079471</v>
       </c>
       <c r="B5" s="1">
         <v>16.309012875536482</v>
       </c>
+      <c r="C5" s="1">
+        <v>0.8741721854304636</v>
+      </c>
       <c r="D5" s="1">
-        <v>0.8741721854304636</v>
-      </c>
-      <c r="E5" s="1">
         <v>12.446351931330472</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1.8278145695364238</v>
       </c>
       <c r="B6" s="1">
         <v>20.600858369098713</v>
       </c>
+      <c r="C6" s="1">
+        <v>1.0331125827814569</v>
+      </c>
       <c r="D6" s="1">
-        <v>1.0331125827814569</v>
-      </c>
-      <c r="E6" s="1">
         <v>15.879828326180256</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2.4635761589403975</v>
       </c>
       <c r="B7" s="1">
         <v>23.605150214592275</v>
       </c>
+      <c r="C7" s="1">
+        <v>1.1920529801324502</v>
+      </c>
       <c r="D7" s="1">
-        <v>1.1920529801324502</v>
-      </c>
-      <c r="E7" s="1">
         <v>17.596566523605151</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.0993377483443707</v>
       </c>
       <c r="B8" s="1">
         <v>26.180257510729614</v>
       </c>
+      <c r="C8" s="1">
+        <v>1.4304635761589404</v>
+      </c>
       <c r="D8" s="1">
-        <v>1.4304635761589404</v>
-      </c>
-      <c r="E8" s="1">
         <v>19.313304721030043</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4.370860927152318</v>
       </c>
       <c r="B9" s="1">
         <v>29.184549356223176</v>
       </c>
+      <c r="C9" s="1">
+        <v>1.5894039735099339</v>
+      </c>
       <c r="D9" s="1">
-        <v>1.5894039735099339</v>
-      </c>
-      <c r="E9" s="1">
         <v>21.459227467811161</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5.8807947019867548</v>
       </c>
       <c r="B10" s="1">
         <v>33.476394849785407</v>
       </c>
+      <c r="C10" s="1">
+        <v>2.2251655629139071</v>
+      </c>
       <c r="D10" s="1">
-        <v>2.2251655629139071</v>
-      </c>
-      <c r="E10" s="1">
         <v>26.609442060085836</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>7.629139072847682</v>
       </c>
       <c r="B11" s="1">
         <v>38.626609442060087</v>
       </c>
+      <c r="C11" s="1">
+        <v>3.3377483443708607</v>
+      </c>
       <c r="D11" s="1">
-        <v>3.3377483443708607</v>
-      </c>
-      <c r="E11" s="1">
         <v>31.759656652360512</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>8.4238410596026494</v>
       </c>
       <c r="B12" s="1">
         <v>42.06008583690987</v>
       </c>
+      <c r="C12" s="1">
+        <v>4.0529801324503314</v>
+      </c>
       <c r="D12" s="1">
-        <v>4.0529801324503314</v>
-      </c>
-      <c r="E12" s="1">
         <v>36.480686695278969</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9.7748344370860938</v>
       </c>
       <c r="B13" s="1">
         <v>45.922746781115883</v>
       </c>
+      <c r="C13" s="1">
+        <v>4.6887417218543046</v>
+      </c>
       <c r="D13" s="1">
-        <v>4.6887417218543046</v>
-      </c>
-      <c r="E13" s="1">
         <v>39.91416309012876</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>10.569536423841059</v>
       </c>
       <c r="B14" s="1">
         <v>49.785407725321889</v>
       </c>
+      <c r="C14" s="1">
+        <v>5.5629139072847682</v>
+      </c>
       <c r="D14" s="1">
-        <v>5.5629139072847682</v>
-      </c>
-      <c r="E14" s="1">
         <v>44.206008583690988</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12.079470198675498</v>
       </c>
       <c r="B15" s="1">
         <v>55.36480686695279</v>
       </c>
+      <c r="C15" s="1">
+        <v>6.1986754966887414</v>
+      </c>
       <c r="D15" s="1">
-        <v>6.1986754966887414</v>
-      </c>
-      <c r="E15" s="1">
         <v>48.497854077253216</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13.112582781456954</v>
       </c>
       <c r="B16" s="1">
         <v>60.515021459227469</v>
       </c>
+      <c r="C16" s="1">
+        <v>6.9933774834437088</v>
+      </c>
       <c r="D16" s="1">
-        <v>6.9933774834437088</v>
-      </c>
-      <c r="E16" s="1">
         <v>52.789699570815451</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14.14569536423841</v>
       </c>
       <c r="B17" s="1">
         <v>62.231759656652365</v>
       </c>
+      <c r="C17" s="1">
+        <v>7.7880794701986753</v>
+      </c>
       <c r="D17" s="1">
-        <v>7.7880794701986753</v>
-      </c>
-      <c r="E17" s="1">
         <v>57.510729613733901</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15.417218543046356</v>
       </c>
       <c r="B18" s="1">
         <v>63.94849785407726</v>
       </c>
+      <c r="C18" s="1">
+        <v>8.5827814569536418</v>
+      </c>
       <c r="D18" s="1">
-        <v>8.5827814569536418</v>
-      </c>
-      <c r="E18" s="1">
         <v>62.660944206008587</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16.52980132450331</v>
       </c>
       <c r="B19" s="1">
         <v>65.236051502145926</v>
       </c>
+      <c r="C19" s="1">
+        <v>9.3774834437086092</v>
+      </c>
       <c r="D19" s="1">
-        <v>9.3774834437086092</v>
-      </c>
-      <c r="E19" s="1">
         <v>66.094420600858371</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="1">
+        <v>10.331125827814569</v>
+      </c>
       <c r="D20" s="1">
-        <v>10.331125827814569</v>
-      </c>
-      <c r="E20" s="1">
         <v>70.815450643776828</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <v>11.443708609271523</v>
+      </c>
       <c r="D21" s="1">
-        <v>11.443708609271523</v>
-      </c>
-      <c r="E21" s="1">
         <v>76.824034334763951</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>12.794701986754966</v>
+      </c>
       <c r="D22" s="1">
-        <v>12.794701986754966</v>
-      </c>
-      <c r="E22" s="1">
         <v>82.832618025751074</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>14.066225165562914</v>
+      </c>
       <c r="D23" s="1">
-        <v>14.066225165562914</v>
-      </c>
-      <c r="E23" s="1">
         <v>90.557939914163086</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="1">
+        <v>15.576158940397351</v>
+      </c>
       <c r="D24" s="1">
-        <v>15.576158940397351</v>
-      </c>
-      <c r="E24" s="1">
         <v>96.566523605150209</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" s="1">
+        <v>18.039735099337747</v>
+      </c>
       <c r="D25" s="1">
-        <v>18.039735099337747</v>
-      </c>
-      <c r="E25" s="1">
         <v>100.85836909871244</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>20.503311258278146</v>
+      </c>
       <c r="D26" s="1">
-        <v>20.503311258278146</v>
-      </c>
-      <c r="E26" s="1">
         <v>101.71673819742489</v>
       </c>
     </row>
